--- a/MocUp_Uniqlo_rev2.xlsx
+++ b/MocUp_Uniqlo_rev2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttor-my.sharepoint.com/personal/or-grm_pttor_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FG Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2429C3-773D-42FB-9C80-3BFE0B6408BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F2EF64-512F-44F0-9384-4C31B04A8162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649BEA87-808C-4DB4-AF5F-7F4D4E481903}"/>
   </bookViews>
@@ -601,11 +601,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -657,7 +657,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -974,21 +974,21 @@
   </sheetPr>
   <dimension ref="A1:E379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="3">
         <v>44197</v>
       </c>
@@ -1019,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="3">
         <v>44197</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="3">
         <v>44197</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="3">
         <v>44197</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="3">
         <v>44197</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="3">
         <v>44197</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="3">
         <v>44197</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="3">
         <v>44197</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="3">
         <v>44197</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="3">
         <v>44197</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="3">
         <v>44197</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="3">
         <v>44197</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="3">
         <v>44197</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="3">
         <v>44197</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="3">
         <v>44197</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" s="3">
         <v>44197</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="3">
         <v>44197</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="3">
         <v>44197</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="3">
         <v>44197</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" s="3">
         <v>44197</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" s="3">
         <v>44197</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A23" s="3">
         <v>44197</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="3">
         <v>44197</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="3">
         <v>44197</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" s="3">
         <v>44197</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" s="3">
         <v>44197</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" s="3">
         <v>44197</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" s="3">
         <v>44197</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A30" s="3">
         <v>44197</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" s="3">
         <v>44197</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A32" s="3">
         <v>44197</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" s="3">
         <v>44197</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" s="3">
         <v>44197</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" s="3">
         <v>44197</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" s="3">
         <v>44197</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A37" s="3">
         <v>44197</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A38" s="3">
         <v>44197</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A39" s="3">
         <v>44197</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A40" s="3">
         <v>44197</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A41" s="3">
         <v>44197</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="3">
         <v>44197</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" s="3">
         <v>44197</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" s="3">
         <v>44228</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" s="3">
         <v>44228</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" s="3">
         <v>44228</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" s="3">
         <v>44228</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" s="3">
         <v>44228</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" s="3">
         <v>44228</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" s="3">
         <v>44228</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="3">
         <v>44228</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="3">
         <v>44228</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="3">
         <v>44228</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="3">
         <v>44228</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="3">
         <v>44228</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="3">
         <v>44228</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="3">
         <v>44228</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="3">
         <v>44228</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="3">
         <v>44228</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="3">
         <v>44228</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" s="3">
         <v>44228</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" s="3">
         <v>44228</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" s="3">
         <v>44228</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" s="3">
         <v>44228</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="3">
         <v>44228</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A66" s="3">
         <v>44228</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" s="3">
         <v>44228</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A68" s="3">
         <v>44228</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="3">
         <v>44228</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="3">
         <v>44228</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="3">
         <v>44228</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="3">
         <v>44228</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="3">
         <v>44228</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="3">
         <v>44228</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="3">
         <v>44228</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="3">
         <v>44228</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="3">
         <v>44228</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="3">
         <v>44228</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="3">
         <v>44228</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="3">
         <v>44228</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A81" s="3">
         <v>44228</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A82" s="3">
         <v>44228</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A83" s="3">
         <v>44228</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A84" s="3">
         <v>44228</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A85" s="3">
         <v>44228</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A86" s="3">
         <v>44256</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A87" s="3">
         <v>44256</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A88" s="3">
         <v>44256</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A89" s="3">
         <v>44256</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A90" s="3">
         <v>44256</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A91" s="3">
         <v>44256</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A92" s="3">
         <v>44256</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A93" s="3">
         <v>44256</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A94" s="3">
         <v>44256</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A95" s="3">
         <v>44256</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A96" s="3">
         <v>44256</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A97" s="3">
         <v>44256</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A98" s="3">
         <v>44256</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A99" s="3">
         <v>44256</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A100" s="3">
         <v>44256</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A101" s="3">
         <v>44256</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A102" s="3">
         <v>44256</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A103" s="3">
         <v>44256</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A104" s="3">
         <v>44256</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A105" s="3">
         <v>44256</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A106" s="3">
         <v>44256</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A107" s="3">
         <v>44256</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A108" s="3">
         <v>44256</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A109" s="3">
         <v>44256</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A110" s="3">
         <v>44256</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A111" s="3">
         <v>44256</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A112" s="3">
         <v>44256</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A113" s="3">
         <v>44256</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A114" s="3">
         <v>44256</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A115" s="3">
         <v>44256</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A116" s="3">
         <v>44256</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A117" s="3">
         <v>44256</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A118" s="3">
         <v>44256</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A119" s="3">
         <v>44256</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A120" s="3">
         <v>44256</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A121" s="3">
         <v>44256</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A122" s="3">
         <v>44256</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A123" s="3">
         <v>44256</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A124" s="3">
         <v>44256</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A125" s="3">
         <v>44256</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A126" s="3">
         <v>44256</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A127" s="3">
         <v>44256</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A128" s="3">
         <v>43831</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A129" s="3">
         <v>43831</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A130" s="3">
         <v>43831</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A131" s="3">
         <v>43831</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A132" s="3">
         <v>43831</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A133" s="3">
         <v>43831</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A134" s="3">
         <v>43831</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A135" s="3">
         <v>43831</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A136" s="3">
         <v>43831</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A137" s="3">
         <v>43831</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A138" s="3">
         <v>43831</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A139" s="3">
         <v>43831</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A140" s="3">
         <v>43831</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A141" s="3">
         <v>43831</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A142" s="3">
         <v>43831</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A143" s="3">
         <v>43831</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A144" s="3">
         <v>43831</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A145" s="3">
         <v>43831</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A146" s="3">
         <v>43831</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A147" s="3">
         <v>43831</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A148" s="3">
         <v>43831</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A149" s="3">
         <v>43831</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A150" s="3">
         <v>43831</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A151" s="3">
         <v>43831</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A152" s="3">
         <v>43831</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A153" s="3">
         <v>43831</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A154" s="3">
         <v>43831</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A155" s="3">
         <v>43831</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A156" s="3">
         <v>43831</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A157" s="3">
         <v>43831</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A158" s="3">
         <v>43831</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A159" s="3">
         <v>43831</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A160" s="3">
         <v>43831</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A161" s="3">
         <v>43831</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A162" s="3">
         <v>43831</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A163" s="3">
         <v>43831</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A164" s="3">
         <v>43831</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A165" s="3">
         <v>43831</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A166" s="3">
         <v>43831</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A167" s="3">
         <v>43831</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A168" s="3">
         <v>43831</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A169" s="3">
         <v>43831</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A170" s="3">
         <v>43862</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A171" s="3">
         <v>43862</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A172" s="3">
         <v>43862</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A173" s="3">
         <v>43862</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A174" s="3">
         <v>43862</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A175" s="3">
         <v>43862</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A176" s="3">
         <v>43862</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A177" s="3">
         <v>43862</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A178" s="3">
         <v>43862</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A179" s="3">
         <v>43862</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A180" s="3">
         <v>43862</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A181" s="3">
         <v>43862</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A182" s="3">
         <v>43862</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A183" s="3">
         <v>43862</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A184" s="3">
         <v>43862</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A185" s="3">
         <v>43862</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A186" s="3">
         <v>43862</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A187" s="3">
         <v>43862</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A188" s="3">
         <v>43862</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A189" s="3">
         <v>43862</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A190" s="3">
         <v>43862</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A191" s="3">
         <v>43862</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A192" s="3">
         <v>43862</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A193" s="3">
         <v>43862</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A194" s="3">
         <v>43862</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A195" s="3">
         <v>43862</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A196" s="3">
         <v>43862</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A197" s="3">
         <v>43862</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A198" s="3">
         <v>43862</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A199" s="3">
         <v>43862</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A200" s="3">
         <v>43862</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A201" s="3">
         <v>43862</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A202" s="3">
         <v>43862</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A203" s="3">
         <v>43862</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A204" s="3">
         <v>43862</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A205" s="3">
         <v>43862</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A206" s="3">
         <v>43862</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A207" s="3">
         <v>43862</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A208" s="3">
         <v>43862</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A209" s="3">
         <v>43862</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A210" s="3">
         <v>43862</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A211" s="3">
         <v>43862</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A212" s="3">
         <v>43891</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A213" s="3">
         <v>43891</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A214" s="3">
         <v>43891</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A215" s="3">
         <v>43891</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A216" s="3">
         <v>43891</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A217" s="3">
         <v>43891</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A218" s="3">
         <v>43891</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A219" s="3">
         <v>43891</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A220" s="3">
         <v>43891</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A221" s="3">
         <v>43891</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A222" s="3">
         <v>43891</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A223" s="3">
         <v>43891</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A224" s="3">
         <v>43891</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A225" s="3">
         <v>43891</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A226" s="3">
         <v>43891</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A227" s="3">
         <v>43891</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A228" s="3">
         <v>43891</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A229" s="3">
         <v>43891</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A230" s="3">
         <v>43891</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A231" s="3">
         <v>43891</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A232" s="3">
         <v>43891</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A233" s="3">
         <v>43891</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A234" s="3">
         <v>43891</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A235" s="3">
         <v>43891</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A236" s="3">
         <v>43891</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A237" s="3">
         <v>43891</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A238" s="3">
         <v>43891</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A239" s="3">
         <v>43891</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A240" s="3">
         <v>43891</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A241" s="3">
         <v>43891</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A242" s="3">
         <v>43891</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A243" s="3">
         <v>43891</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A244" s="3">
         <v>43891</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A245" s="3">
         <v>43891</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A246" s="3">
         <v>43891</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A247" s="3">
         <v>43891</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A248" s="3">
         <v>43891</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A249" s="3">
         <v>43891</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A250" s="3">
         <v>43891</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A251" s="3">
         <v>43891</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A252" s="3">
         <v>43891</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A253" s="3">
         <v>43891</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A254" s="3">
         <v>44562</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A255" s="3">
         <v>44562</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A256" s="3">
         <v>44562</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A257" s="3">
         <v>44562</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A258" s="3">
         <v>44562</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A259" s="3">
         <v>44562</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A260" s="3">
         <v>44562</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A261" s="3">
         <v>44562</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A262" s="3">
         <v>44562</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A263" s="3">
         <v>44562</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A264" s="3">
         <v>44562</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A265" s="3">
         <v>44562</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A266" s="3">
         <v>44562</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A267" s="3">
         <v>44562</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A268" s="3">
         <v>44562</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A269" s="3">
         <v>44562</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A270" s="3">
         <v>44562</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A271" s="3">
         <v>44562</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A272" s="3">
         <v>44562</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A273" s="3">
         <v>44562</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A274" s="3">
         <v>44562</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A275" s="3">
         <v>44562</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A276" s="3">
         <v>44562</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A277" s="3">
         <v>44562</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A278" s="3">
         <v>44562</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A279" s="3">
         <v>44562</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A280" s="3">
         <v>44562</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A281" s="3">
         <v>44562</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A282" s="3">
         <v>44562</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A283" s="3">
         <v>44562</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A284" s="3">
         <v>44562</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A285" s="3">
         <v>44562</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A286" s="3">
         <v>44562</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A287" s="3">
         <v>44562</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A288" s="3">
         <v>44562</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A289" s="3">
         <v>44562</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A290" s="3">
         <v>44562</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A291" s="3">
         <v>44562</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A292" s="3">
         <v>44562</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A293" s="3">
         <v>44562</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A294" s="3">
         <v>44562</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A295" s="3">
         <v>44562</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A296" s="3">
         <v>44593</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A297" s="3">
         <v>44593</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A298" s="3">
         <v>44593</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A299" s="3">
         <v>44593</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A300" s="3">
         <v>44593</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A301" s="3">
         <v>44593</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A302" s="3">
         <v>44593</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A303" s="3">
         <v>44593</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A304" s="3">
         <v>44593</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A305" s="3">
         <v>44593</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A306" s="3">
         <v>44593</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A307" s="3">
         <v>44593</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A308" s="3">
         <v>44593</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A309" s="3">
         <v>44593</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A310" s="3">
         <v>44593</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A311" s="3">
         <v>44593</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A312" s="3">
         <v>44593</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A313" s="3">
         <v>44593</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A314" s="3">
         <v>44593</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A315" s="3">
         <v>44593</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A316" s="3">
         <v>44593</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A317" s="3">
         <v>44593</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A318" s="3">
         <v>44593</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A319" s="3">
         <v>44593</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A320" s="3">
         <v>44593</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A321" s="3">
         <v>44593</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A322" s="3">
         <v>44593</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A323" s="3">
         <v>44593</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A324" s="3">
         <v>44593</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A325" s="3">
         <v>44593</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A326" s="3">
         <v>44593</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A327" s="3">
         <v>44593</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A328" s="3">
         <v>44593</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A329" s="3">
         <v>44593</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A330" s="3">
         <v>44593</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A331" s="3">
         <v>44593</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A332" s="3">
         <v>44593</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A333" s="3">
         <v>44593</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A334" s="3">
         <v>44593</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A335" s="3">
         <v>44593</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A336" s="3">
         <v>44593</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A337" s="3">
         <v>44593</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A338" s="3">
         <v>44621</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A339" s="3">
         <v>44621</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A340" s="3">
         <v>44621</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A341" s="3">
         <v>44621</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A342" s="3">
         <v>44621</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A343" s="3">
         <v>44621</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A344" s="3">
         <v>44621</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A345" s="3">
         <v>44621</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A346" s="3">
         <v>44621</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A347" s="3">
         <v>44621</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A348" s="3">
         <v>44621</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A349" s="3">
         <v>44621</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A350" s="3">
         <v>44621</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A351" s="3">
         <v>44621</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A352" s="3">
         <v>44621</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A353" s="3">
         <v>44621</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A354" s="3">
         <v>44621</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A355" s="3">
         <v>44621</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A356" s="3">
         <v>44621</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A357" s="3">
         <v>44621</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A358" s="3">
         <v>44621</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A359" s="3">
         <v>44621</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A360" s="3">
         <v>44621</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A361" s="3">
         <v>44621</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A362" s="3">
         <v>44621</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A363" s="3">
         <v>44621</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A364" s="3">
         <v>44621</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A365" s="3">
         <v>44621</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A366" s="3">
         <v>44621</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A367" s="3">
         <v>44621</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A368" s="3">
         <v>44621</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A369" s="3">
         <v>44621</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A370" s="3">
         <v>44621</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A371" s="3">
         <v>44621</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A372" s="3">
         <v>44621</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A373" s="3">
         <v>44621</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A374" s="3">
         <v>44621</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A375" s="3">
         <v>44621</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A376" s="3">
         <v>44621</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A377" s="3">
         <v>44621</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A378" s="3">
         <v>44621</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A379" s="3">
         <v>44621</v>
       </c>
@@ -7476,13 +7476,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
+    <row r="1" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21.75">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21.75">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21.75">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21.75">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21.75">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="21.75">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21.75">
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -7559,13 +7559,13 @@
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="43.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21.75">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21.75">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21.75">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21.75">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21.75">
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21.75">
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21.75">
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21.75">
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21.75">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="21.75">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="21.75">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -7675,7 +7675,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="21.75">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -7685,7 +7685,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="21.75">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="21.75">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21.75">
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21.75">
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21.75">
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21.75">
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21.75">
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21.75">
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="21.75">
+    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="21.75">
+    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21.75">
+    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="21.75">
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21.75">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21.75">
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="21.75">
+    <row r="29" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="21.75">
+    <row r="30" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="21.75">
+    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="21.75">
+    <row r="32" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="21.75">
+    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="21.75">
+    <row r="34" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="21.75">
+    <row r="35" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21.75">
+    <row r="36" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="21.75">
+    <row r="37" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="21.75">
+    <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="21.75">
+    <row r="39" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21.75">
+    <row r="40" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21.75">
+    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21.75">
+    <row r="42" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="21.75">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21.75">
+    <row r="44" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="21.75">
+    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="21.75">
+    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="21.75">
+    <row r="47" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="21.75">
+    <row r="48" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="21.75">
+    <row r="49" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21.75">
+    <row r="50" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="21.75">
+    <row r="51" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="21.75">
+    <row r="52" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="21.75">
+    <row r="53" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>4</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="21.75">
+    <row r="54" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>5</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="21.75">
+    <row r="55" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>6</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="21.75">
+    <row r="56" spans="1:2" ht="21" x14ac:dyDescent="0.6">
       <c r="A56" s="5">
         <v>7</v>
       </c>
@@ -8036,41 +8036,41 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.45">
+    <row r="1" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21">
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21">
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="21">
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.6">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -8086,14 +8086,14 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="21.75">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.75">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.75">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.75">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.75">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21.75">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.75">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.75">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>1011</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.75">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>1012</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.75">
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>1013</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75">
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>1014</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21.75">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>1015</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21.75">
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>1016</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21.75">
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>1017</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21.75">
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>1018</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.75">
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>1019</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21.75">
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>1020</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21.75">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>1021</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21.75">
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>1022</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21.75">
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>1023</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21.75">
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>1024</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.75">
+    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>1025</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75">
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>1026</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21.75">
+    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>1027</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21.75">
+    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>1029</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21.75">
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>1030</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21.75">
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>1031</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21.75">
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>1032</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21.75">
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>1033</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21.75">
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>1034</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21.75">
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>1035</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21.75">
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>1039</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21.75">
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>1040</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21.75">
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>1041</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.75">
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>1042</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21.75">
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>1046</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21.75">
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>1047</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21.75">
+    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>1048</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21.75">
+    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>1049</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21.75">
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>1050</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21.75">
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>1051</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21.75">
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>1052</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21.75">
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>1053</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21.75">
+    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>1054</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21.75">
+    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>1055</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21.75">
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>1056</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21.75">
+    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>1057</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21.75">
+    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>1058</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21.75">
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>1059</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21.75">
+    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>1060</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21.75">
+    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>1061</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="21.75">
+    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>1062</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21.75">
+    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>1063</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="21.75">
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>1064</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21.75">
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>1065</v>
       </c>

--- a/MocUp_Uniqlo_rev2.xlsx
+++ b/MocUp_Uniqlo_rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FG Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F2EF64-512F-44F0-9384-4C31B04A8162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD2FCD5-697D-42DA-9C8B-C125621715C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649BEA87-808C-4DB4-AF5F-7F4D4E481903}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>500000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">

--- a/MocUp_Uniqlo_rev2.xlsx
+++ b/MocUp_Uniqlo_rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FG Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD2FCD5-697D-42DA-9C8B-C125621715C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1D6E0-D5E9-4687-87E3-12C5244AE48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649BEA87-808C-4DB4-AF5F-7F4D4E481903}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">

--- a/MocUp_Uniqlo_rev2.xlsx
+++ b/MocUp_Uniqlo_rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FG Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1D6E0-D5E9-4687-87E3-12C5244AE48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F1D535-57CE-4DA4-81F9-45714C6CF98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649BEA87-808C-4DB4-AF5F-7F4D4E481903}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
@@ -7473,7 +7473,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/MocUp_Uniqlo_rev2.xlsx
+++ b/MocUp_Uniqlo_rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FG Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F1D535-57CE-4DA4-81F9-45714C6CF98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA4D538-9869-47DE-9451-27D9391ED0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649BEA87-808C-4DB4-AF5F-7F4D4E481903}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">

--- a/MocUp_Uniqlo_rev2.xlsx
+++ b/MocUp_Uniqlo_rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FG Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA4D538-9869-47DE-9451-27D9391ED0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59167383-B2BE-49FE-8D77-B6B2FD487599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649BEA87-808C-4DB4-AF5F-7F4D4E481903}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">

--- a/MocUp_Uniqlo_rev2.xlsx
+++ b/MocUp_Uniqlo_rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FG Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59167383-B2BE-49FE-8D77-B6B2FD487599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15F643C-52B2-4EBA-9AD7-03B6447F9620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649BEA87-808C-4DB4-AF5F-7F4D4E481903}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">

--- a/MocUp_Uniqlo_rev2.xlsx
+++ b/MocUp_Uniqlo_rev2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FG Laptop\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanakit\Desktop\Uniqlo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15F643C-52B2-4EBA-9AD7-03B6447F9620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542B51AE-115E-477E-8BAE-BF987AB21220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649BEA87-808C-4DB4-AF5F-7F4D4E481903}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="184">
   <si>
     <t>Date</t>
   </si>
@@ -601,11 +601,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -626,6 +626,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Cordia New"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -648,13 +654,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,20 +980,20 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E379"/>
+  <dimension ref="A1:E463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="I381" sqref="I381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.6">
@@ -7429,6 +7437,1434 @@
       </c>
       <c r="E379" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A380" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A381" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D381" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E381" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A382" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A383" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D383" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E383" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A384" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E384" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A385" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E385" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A386" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E386" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A387" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E387" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A388" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D388" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E388" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A389" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E389" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A390" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B390" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D390" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E390" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A391" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D391" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E391" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A392" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D392" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E392" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A393" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D393" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E393" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A394" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E394" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A395" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D395" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A396" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D396" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E396" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A397" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D397" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A398" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D398" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A399" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D399" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A400" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D400" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A401" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E401" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A402" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D402" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E402" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A403" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D403" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E403" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A404" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D404" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E404" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A405" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D405" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E405" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A406" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D406" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E406" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A407" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E407" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A408" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E408" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A409" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D409" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E409" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A410" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D410" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E410" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A411" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E411" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A412" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D412" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E412" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A413" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D413" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E413" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A414" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D414" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E414" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A415" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E415" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A416" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E416" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A417" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D417" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A418" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D418" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E418" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A419" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D419" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E419" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A420" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D420" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E420" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A421" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D421" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E421" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A422" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E422" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A423" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D423" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E423" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A424" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D424" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A425" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D425" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E425" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A426" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D426" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E426" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A427" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D427" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A428" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D428" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E428" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A429" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E429" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A430" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D430" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E430" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A431" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D431" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E431" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A432" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D432" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E432" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A433" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D433" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E433" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A434" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D434" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E434" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A435" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D435" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E435" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A436" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E436" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A437" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D437" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E437" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A438" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D438" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E438" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A439" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D439" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E439" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A440" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D440" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E440" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A441" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E441" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A442" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D442" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A443" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E443" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A444" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D444" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E444" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A445" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D445" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E445" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A446" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B446" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D446" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E446" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A447" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D447" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E447" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A448" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B448" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E448" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A449" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D449" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E449" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A450" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B450" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E450" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A451" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D451" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E451" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A452" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B452" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D452" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E452" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A453" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D453" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E453" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A454" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D454" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E454" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A455" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D455" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E455" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A456" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D456" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E456" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A457" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E457" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A458" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D458" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E458" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A459" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B459" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D459" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E459" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A460" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B460" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D460" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E460" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A461" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D461" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E461" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A462" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B462" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D462" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E462" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A463" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C463" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D463" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E463" s="7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7442,13 +8878,13 @@
           <x14:formula1>
             <xm:f>Type!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D379 D464:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FC481DDE-1BFF-411B-8B2C-A1D59F0A4F6E}">
           <x14:formula1>
             <xm:f>Store!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B380:B1048576</xm:sqref>
+          <xm:sqref>B464:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01195BDD-2C4E-400D-966A-2A6013932249}">
           <x14:formula1>
@@ -7460,7 +8896,7 @@
           <x14:formula1>
             <xm:f>'Asset Type'!$B$2:$B$56</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>C2:C379 C464:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7476,10 +8912,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -7559,10 +8995,10 @@
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="43.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8036,9 +9472,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8086,10 +9522,10 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
-    <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
